--- a/client/public/1.2.2.xlsx
+++ b/client/public/1.2.2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -51,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,29 +121,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -256,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,174 +444,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="26" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="60">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC8C" sheet="1" objects="1" scenarios="1" insertRows="0"/>
   <mergeCells count="1">
     <mergeCell ref="A2:H2"/>
   </mergeCells>
@@ -607,24 +622,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
